--- a/platform_scrapper/utilities/test_cannabis.xlsx
+++ b/platform_scrapper/utilities/test_cannabis.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12842" uniqueCount="5098">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12845" uniqueCount="5098">
   <si>
     <t>Municipality or First Nation</t>
   </si>
@@ -15688,9 +15688,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M1972"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F201" activeCellId="1" sqref="E201 F201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16982,6 +16982,9 @@
       <c r="E46" t="s">
         <v>657</v>
       </c>
+      <c r="F46" t="s">
+        <v>5082</v>
+      </c>
       <c r="H46" t="s">
         <v>216</v>
       </c>
@@ -17034,6 +17037,9 @@
       <c r="E48" t="s">
         <v>663</v>
       </c>
+      <c r="F48" t="s">
+        <v>5082</v>
+      </c>
       <c r="H48" t="s">
         <v>86</v>
       </c>
@@ -17056,6 +17062,9 @@
       </c>
       <c r="E49" t="s">
         <v>663</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5082</v>
       </c>
       <c r="H49" t="s">
         <v>86</v>
